--- a/doc/app/pg0171/pg0171_db_update_単体テスト仕様書.xlsx
+++ b/doc/app/pg0171/pg0171_db_update_単体テスト仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\rust\rust_learn\doc\app\pg0171\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0AC57D-09C0-451E-A870-0C9DD65714EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68439A41-28AD-4D48-BC27-9D803DE91F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
   <si>
     <t>単体テスト仕様書</t>
   </si>
@@ -136,9 +136,6 @@
     <t>引数個数1</t>
   </si>
   <si>
-    <t>7269928561756231</t>
-  </si>
-  <si>
     <t>引数個数3</t>
   </si>
   <si>
@@ -196,9 +193,6 @@
     <t>0522871045567072</t>
   </si>
   <si>
-    <t>0361536805164383</t>
-  </si>
-  <si>
     <t>1889364835489365</t>
   </si>
   <si>
@@ -220,11 +214,6 @@
     <rPh sb="28" eb="30">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1.次のメッセージが出ること
-【カード存在チェックNG:するカードは登録済みです。】</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -363,6 +352,33 @@
     <t>7269928561756230</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>7269928561756239</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>申請者するカードが未登録</t>
+    <rPh sb="0" eb="3">
+      <t>シンセイシャ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ミトウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.次のメッセージが出ること
+【カード存在チェックNG:するカードは登録されてません。】</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0361536805164383</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0361536805164383</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -443,7 +459,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -459,44 +475,47 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:DP46"/>
+  <dimension ref="A2:DP47"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:S16"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.6328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -785,145 +804,145 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:120" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-      <c r="AY2" s="5"/>
-      <c r="AZ2" s="5"/>
-      <c r="BA2" s="5"/>
-      <c r="BB2" s="5"/>
-      <c r="BC2" s="5"/>
-      <c r="BD2" s="5"/>
-      <c r="BE2" s="5"/>
-      <c r="BF2" s="5"/>
-      <c r="BG2" s="5"/>
-      <c r="BH2" s="5"/>
-      <c r="BI2" s="5"/>
-      <c r="BJ2" s="5"/>
-      <c r="BK2" s="5"/>
-      <c r="BL2" s="5"/>
-      <c r="BM2" s="5"/>
-      <c r="BN2" s="5"/>
-      <c r="BO2" s="5"/>
-      <c r="BP2" s="5"/>
-      <c r="BQ2" s="5"/>
-      <c r="BR2" s="5"/>
-      <c r="BS2" s="5"/>
-      <c r="BT2" s="5"/>
-      <c r="BU2" s="5"/>
-      <c r="BV2" s="5"/>
-      <c r="BW2" s="5"/>
-      <c r="BX2" s="5"/>
-      <c r="BY2" s="5"/>
-      <c r="BZ2" s="5"/>
-      <c r="CA2" s="5"/>
-      <c r="CB2" s="5"/>
-      <c r="CC2" s="5"/>
-      <c r="CD2" s="5"/>
-      <c r="CE2" s="5"/>
-      <c r="CF2" s="5"/>
-      <c r="CG2" s="5"/>
-      <c r="CH2" s="5"/>
-      <c r="CI2" s="5"/>
-      <c r="CJ2" s="5"/>
-      <c r="CK2" s="5"/>
-      <c r="CL2" s="5"/>
-      <c r="CM2" s="5"/>
-      <c r="CN2" s="5"/>
-      <c r="CO2" s="5"/>
-      <c r="CP2" s="5"/>
-      <c r="CQ2" s="5"/>
-      <c r="CR2" s="5"/>
-      <c r="CS2" s="5"/>
-      <c r="CT2" s="5"/>
-      <c r="CU2" s="5"/>
-      <c r="CV2" s="5"/>
-      <c r="CW2" s="5"/>
-      <c r="CX2" s="5"/>
-      <c r="CY2" s="5"/>
-      <c r="CZ2" s="5"/>
-      <c r="DA2" s="5"/>
-      <c r="DB2" s="5"/>
-      <c r="DC2" s="5"/>
-      <c r="DD2" s="5"/>
-      <c r="DE2" s="5"/>
-      <c r="DF2" s="5"/>
-      <c r="DG2" s="5"/>
-      <c r="DH2" s="5"/>
-      <c r="DI2" s="5"/>
-      <c r="DJ2" s="5"/>
-      <c r="DK2" s="5"/>
-      <c r="DL2" s="5"/>
-      <c r="DM2" s="5"/>
-      <c r="DN2" s="5"/>
-      <c r="DO2" s="5"/>
-      <c r="DP2" s="5"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="13"/>
+      <c r="AR2" s="13"/>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="13"/>
+      <c r="AU2" s="13"/>
+      <c r="AV2" s="13"/>
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="13"/>
+      <c r="AZ2" s="13"/>
+      <c r="BA2" s="13"/>
+      <c r="BB2" s="13"/>
+      <c r="BC2" s="13"/>
+      <c r="BD2" s="13"/>
+      <c r="BE2" s="13"/>
+      <c r="BF2" s="13"/>
+      <c r="BG2" s="13"/>
+      <c r="BH2" s="13"/>
+      <c r="BI2" s="13"/>
+      <c r="BJ2" s="13"/>
+      <c r="BK2" s="13"/>
+      <c r="BL2" s="13"/>
+      <c r="BM2" s="13"/>
+      <c r="BN2" s="13"/>
+      <c r="BO2" s="13"/>
+      <c r="BP2" s="13"/>
+      <c r="BQ2" s="13"/>
+      <c r="BR2" s="13"/>
+      <c r="BS2" s="13"/>
+      <c r="BT2" s="13"/>
+      <c r="BU2" s="13"/>
+      <c r="BV2" s="13"/>
+      <c r="BW2" s="13"/>
+      <c r="BX2" s="13"/>
+      <c r="BY2" s="13"/>
+      <c r="BZ2" s="13"/>
+      <c r="CA2" s="13"/>
+      <c r="CB2" s="13"/>
+      <c r="CC2" s="13"/>
+      <c r="CD2" s="13"/>
+      <c r="CE2" s="13"/>
+      <c r="CF2" s="13"/>
+      <c r="CG2" s="13"/>
+      <c r="CH2" s="13"/>
+      <c r="CI2" s="13"/>
+      <c r="CJ2" s="13"/>
+      <c r="CK2" s="13"/>
+      <c r="CL2" s="13"/>
+      <c r="CM2" s="13"/>
+      <c r="CN2" s="13"/>
+      <c r="CO2" s="13"/>
+      <c r="CP2" s="13"/>
+      <c r="CQ2" s="13"/>
+      <c r="CR2" s="13"/>
+      <c r="CS2" s="13"/>
+      <c r="CT2" s="13"/>
+      <c r="CU2" s="13"/>
+      <c r="CV2" s="13"/>
+      <c r="CW2" s="13"/>
+      <c r="CX2" s="13"/>
+      <c r="CY2" s="13"/>
+      <c r="CZ2" s="13"/>
+      <c r="DA2" s="13"/>
+      <c r="DB2" s="13"/>
+      <c r="DC2" s="13"/>
+      <c r="DD2" s="13"/>
+      <c r="DE2" s="13"/>
+      <c r="DF2" s="13"/>
+      <c r="DG2" s="13"/>
+      <c r="DH2" s="13"/>
+      <c r="DI2" s="13"/>
+      <c r="DJ2" s="13"/>
+      <c r="DK2" s="13"/>
+      <c r="DL2" s="13"/>
+      <c r="DM2" s="13"/>
+      <c r="DN2" s="13"/>
+      <c r="DO2" s="13"/>
+      <c r="DP2" s="13"/>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="7" t="s">
-        <v>59</v>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -952,19 +971,19 @@
       <c r="AL4" s="8"/>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
       <c r="M5" s="8" t="s">
         <v>3</v>
       </c>
@@ -995,141 +1014,141 @@
       <c r="AL5" s="8"/>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="6" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6" t="s">
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="6"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="6"/>
-      <c r="AV8" s="6"/>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="6"/>
-      <c r="BA8" s="6"/>
-      <c r="BB8" s="6"/>
-      <c r="BC8" s="6" t="s">
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
+      <c r="AZ8" s="14"/>
+      <c r="BA8" s="14"/>
+      <c r="BB8" s="14"/>
+      <c r="BC8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="BD8" s="6"/>
-      <c r="BE8" s="6"/>
-      <c r="BF8" s="6"/>
-      <c r="BG8" s="6"/>
-      <c r="BH8" s="6"/>
-      <c r="BI8" s="6"/>
-      <c r="BJ8" s="6"/>
-      <c r="BK8" s="6"/>
-      <c r="BL8" s="6"/>
-      <c r="BM8" s="6"/>
-      <c r="BN8" s="6"/>
-      <c r="BO8" s="6"/>
-      <c r="BP8" s="6"/>
-      <c r="BQ8" s="6"/>
-      <c r="BR8" s="6"/>
-      <c r="BS8" s="6"/>
-      <c r="BT8" s="6"/>
-      <c r="BU8" s="6"/>
-      <c r="BV8" s="6"/>
-      <c r="BW8" s="6"/>
-      <c r="BX8" s="6"/>
-      <c r="BY8" s="6"/>
-      <c r="BZ8" s="6"/>
-      <c r="CA8" s="6" t="s">
+      <c r="BD8" s="14"/>
+      <c r="BE8" s="14"/>
+      <c r="BF8" s="14"/>
+      <c r="BG8" s="14"/>
+      <c r="BH8" s="14"/>
+      <c r="BI8" s="14"/>
+      <c r="BJ8" s="14"/>
+      <c r="BK8" s="14"/>
+      <c r="BL8" s="14"/>
+      <c r="BM8" s="14"/>
+      <c r="BN8" s="14"/>
+      <c r="BO8" s="14"/>
+      <c r="BP8" s="14"/>
+      <c r="BQ8" s="14"/>
+      <c r="BR8" s="14"/>
+      <c r="BS8" s="14"/>
+      <c r="BT8" s="14"/>
+      <c r="BU8" s="14"/>
+      <c r="BV8" s="14"/>
+      <c r="BW8" s="14"/>
+      <c r="BX8" s="14"/>
+      <c r="BY8" s="14"/>
+      <c r="BZ8" s="14"/>
+      <c r="CA8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="CB8" s="6"/>
-      <c r="CC8" s="6"/>
-      <c r="CD8" s="6"/>
-      <c r="CE8" s="6"/>
-      <c r="CF8" s="6"/>
-      <c r="CG8" s="6"/>
-      <c r="CH8" s="6"/>
-      <c r="CI8" s="6"/>
-      <c r="CJ8" s="6"/>
-      <c r="CK8" s="6"/>
-      <c r="CL8" s="6"/>
-      <c r="CM8" s="6"/>
-      <c r="CN8" s="6"/>
-      <c r="CO8" s="6"/>
-      <c r="CP8" s="6"/>
-      <c r="CQ8" s="6"/>
-      <c r="CR8" s="6"/>
-      <c r="CS8" s="6"/>
-      <c r="CT8" s="6" t="s">
+      <c r="CB8" s="14"/>
+      <c r="CC8" s="14"/>
+      <c r="CD8" s="14"/>
+      <c r="CE8" s="14"/>
+      <c r="CF8" s="14"/>
+      <c r="CG8" s="14"/>
+      <c r="CH8" s="14"/>
+      <c r="CI8" s="14"/>
+      <c r="CJ8" s="14"/>
+      <c r="CK8" s="14"/>
+      <c r="CL8" s="14"/>
+      <c r="CM8" s="14"/>
+      <c r="CN8" s="14"/>
+      <c r="CO8" s="14"/>
+      <c r="CP8" s="14"/>
+      <c r="CQ8" s="14"/>
+      <c r="CR8" s="14"/>
+      <c r="CS8" s="14"/>
+      <c r="CT8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="CU8" s="6"/>
-      <c r="CV8" s="6"/>
-      <c r="CW8" s="6"/>
-      <c r="CX8" s="6"/>
-      <c r="CY8" s="6"/>
-      <c r="CZ8" s="6"/>
-      <c r="DA8" s="6"/>
-      <c r="DB8" s="6"/>
-      <c r="DC8" s="6"/>
-      <c r="DD8" s="6"/>
-      <c r="DE8" s="6"/>
-      <c r="DF8" s="6"/>
-      <c r="DG8" s="6"/>
-      <c r="DH8" s="6"/>
-      <c r="DI8" s="6"/>
-      <c r="DJ8" s="6"/>
-      <c r="DK8" s="6"/>
-      <c r="DL8" s="6"/>
+      <c r="CU8" s="14"/>
+      <c r="CV8" s="14"/>
+      <c r="CW8" s="14"/>
+      <c r="CX8" s="14"/>
+      <c r="CY8" s="14"/>
+      <c r="CZ8" s="14"/>
+      <c r="DA8" s="14"/>
+      <c r="DB8" s="14"/>
+      <c r="DC8" s="14"/>
+      <c r="DD8" s="14"/>
+      <c r="DE8" s="14"/>
+      <c r="DF8" s="14"/>
+      <c r="DG8" s="14"/>
+      <c r="DH8" s="14"/>
+      <c r="DI8" s="14"/>
+      <c r="DJ8" s="14"/>
+      <c r="DK8" s="14"/>
+      <c r="DL8" s="14"/>
     </row>
     <row r="9" spans="1:120" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="10">
+      <c r="B9" s="7">
         <v>1</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="8" t="s">
         <v>10</v>
       </c>
@@ -1183,7 +1202,7 @@
       <c r="AZ9" s="8"/>
       <c r="BA9" s="8"/>
       <c r="BB9" s="8"/>
-      <c r="BC9" s="11" t="s">
+      <c r="BC9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="BD9" s="8"/>
@@ -1251,12 +1270,12 @@
       <c r="DL9" s="8"/>
     </row>
     <row r="10" spans="1:120" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="10">
+      <c r="B10" s="7">
         <v>2</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
@@ -1310,7 +1329,7 @@
       <c r="AZ10" s="8"/>
       <c r="BA10" s="8"/>
       <c r="BB10" s="8"/>
-      <c r="BC10" s="11" t="s">
+      <c r="BC10" s="9" t="s">
         <v>12</v>
       </c>
       <c r="BD10" s="8"/>
@@ -1378,12 +1397,12 @@
       <c r="DL10" s="8"/>
     </row>
     <row r="11" spans="1:120" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="10">
+      <c r="B11" s="7">
         <v>3</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="8" t="s">
         <v>15</v>
       </c>
@@ -1437,7 +1456,7 @@
       <c r="AZ11" s="8"/>
       <c r="BA11" s="8"/>
       <c r="BB11" s="8"/>
-      <c r="BC11" s="11" t="s">
+      <c r="BC11" s="9" t="s">
         <v>12</v>
       </c>
       <c r="BD11" s="8"/>
@@ -1505,14 +1524,14 @@
       <c r="DL11" s="8"/>
     </row>
     <row r="12" spans="1:120" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="10">
+      <c r="B12" s="7">
         <v>4</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="7" t="s">
-        <v>74</v>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -1564,8 +1583,8 @@
       <c r="AZ12" s="8"/>
       <c r="BA12" s="8"/>
       <c r="BB12" s="8"/>
-      <c r="BC12" s="13" t="s">
-        <v>75</v>
+      <c r="BC12" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="BD12" s="8"/>
       <c r="BE12" s="8"/>
@@ -1632,14 +1651,14 @@
       <c r="DL12" s="8"/>
     </row>
     <row r="13" spans="1:120" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="10">
+      <c r="B13" s="7">
         <v>5</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="7" t="s">
-        <v>62</v>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1691,8 +1710,8 @@
       <c r="AZ13" s="8"/>
       <c r="BA13" s="8"/>
       <c r="BB13" s="8"/>
-      <c r="BC13" s="13" t="s">
-        <v>80</v>
+      <c r="BC13" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="BD13" s="8"/>
       <c r="BE13" s="8"/>
@@ -1759,14 +1778,14 @@
       <c r="DL13" s="8"/>
     </row>
     <row r="14" spans="1:120" ht="79" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="10">
+      <c r="B14" s="7">
         <v>6</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="7" t="s">
-        <v>63</v>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1818,8 +1837,8 @@
       <c r="AZ14" s="8"/>
       <c r="BA14" s="8"/>
       <c r="BB14" s="8"/>
-      <c r="BC14" s="13" t="s">
-        <v>79</v>
+      <c r="BC14" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="BD14" s="8"/>
       <c r="BE14" s="8"/>
@@ -1886,28 +1905,28 @@
       <c r="DL14" s="8"/>
     </row>
     <row r="15" spans="1:120" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="10">
+      <c r="B15" s="7">
         <v>7</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
       <c r="T15" s="8" t="s">
         <v>20</v>
       </c>
@@ -1945,8 +1964,8 @@
       <c r="AZ15" s="8"/>
       <c r="BA15" s="8"/>
       <c r="BB15" s="8"/>
-      <c r="BC15" s="13" t="s">
-        <v>60</v>
+      <c r="BC15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BD15" s="8"/>
       <c r="BE15" s="8"/>
@@ -2013,28 +2032,28 @@
       <c r="DL15" s="8"/>
     </row>
     <row r="16" spans="1:120" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="10">
+      <c r="B16" s="7">
         <v>8</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
       <c r="T16" s="8" t="s">
         <v>21</v>
       </c>
@@ -2072,8 +2091,8 @@
       <c r="AZ16" s="8"/>
       <c r="BA16" s="8"/>
       <c r="BB16" s="8"/>
-      <c r="BC16" s="13" t="s">
-        <v>60</v>
+      <c r="BC16" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BD16" s="8"/>
       <c r="BE16" s="8"/>
@@ -2138,14 +2157,14 @@
       <c r="DL16" s="8"/>
     </row>
     <row r="17" spans="2:116" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="10">
+      <c r="B17" s="7">
         <v>9</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="7" t="s">
-        <v>66</v>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -2160,7 +2179,7 @@
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
-      <c r="T17" s="11" t="s">
+      <c r="T17" s="9" t="s">
         <v>22</v>
       </c>
       <c r="U17" s="8"/>
@@ -2197,8 +2216,8 @@
       <c r="AZ17" s="8"/>
       <c r="BA17" s="8"/>
       <c r="BB17" s="8"/>
-      <c r="BC17" s="13" t="s">
-        <v>61</v>
+      <c r="BC17" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="BD17" s="8"/>
       <c r="BE17" s="8"/>
@@ -2262,15 +2281,15 @@
       <c r="DK17" s="8"/>
       <c r="DL17" s="8"/>
     </row>
-    <row r="18" spans="2:116" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="10">
+    <row r="18" spans="2:116" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="7">
         <v>10</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="7" t="s">
-        <v>68</v>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -2285,8 +2304,8 @@
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
-      <c r="T18" s="11" t="s">
-        <v>23</v>
+      <c r="T18" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
@@ -2322,8 +2341,8 @@
       <c r="AZ18" s="8"/>
       <c r="BA18" s="8"/>
       <c r="BB18" s="8"/>
-      <c r="BC18" s="13" t="s">
-        <v>65</v>
+      <c r="BC18" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="BD18" s="8"/>
       <c r="BE18" s="8"/>
@@ -2387,15 +2406,15 @@
       <c r="DK18" s="8"/>
       <c r="DL18" s="8"/>
     </row>
-    <row r="19" spans="2:116" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="10">
+    <row r="19" spans="2:116" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="7">
         <v>11</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="8" t="s">
-        <v>24</v>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -2410,8 +2429,8 @@
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="11" t="s">
-        <v>25</v>
+      <c r="T19" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
@@ -2448,7 +2467,7 @@
       <c r="BA19" s="8"/>
       <c r="BB19" s="8"/>
       <c r="BC19" s="11" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="BD19" s="8"/>
       <c r="BE19" s="8"/>
@@ -2473,7 +2492,7 @@
       <c r="BX19" s="8"/>
       <c r="BY19" s="8"/>
       <c r="BZ19" s="8"/>
-      <c r="CA19" s="8"/>
+      <c r="CA19" s="12"/>
       <c r="CB19" s="8"/>
       <c r="CC19" s="8"/>
       <c r="CD19" s="8"/>
@@ -2512,12 +2531,16 @@
       <c r="DK19" s="8"/>
       <c r="DL19" s="8"/>
     </row>
-    <row r="20" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="8"/>
+    <row r="20" spans="2:116" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="7">
+        <v>12</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -2531,7 +2554,9 @@
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
+      <c r="T20" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
@@ -2566,7 +2591,9 @@
       <c r="AZ20" s="8"/>
       <c r="BA20" s="8"/>
       <c r="BB20" s="8"/>
-      <c r="BC20" s="8"/>
+      <c r="BC20" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="BD20" s="8"/>
       <c r="BE20" s="8"/>
       <c r="BF20" s="8"/>
@@ -2630,10 +2657,10 @@
       <c r="DL20" s="8"/>
     </row>
     <row r="21" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -2747,10 +2774,10 @@
       <c r="DL21" s="8"/>
     </row>
     <row r="22" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -2864,10 +2891,10 @@
       <c r="DL22" s="8"/>
     </row>
     <row r="23" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -2981,10 +3008,10 @@
       <c r="DL23" s="8"/>
     </row>
     <row r="24" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -3098,10 +3125,10 @@
       <c r="DL24" s="8"/>
     </row>
     <row r="25" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -3215,10 +3242,10 @@
       <c r="DL25" s="8"/>
     </row>
     <row r="26" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -3332,10 +3359,10 @@
       <c r="DL26" s="8"/>
     </row>
     <row r="27" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -3449,10 +3476,10 @@
       <c r="DL27" s="8"/>
     </row>
     <row r="28" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -3566,10 +3593,10 @@
       <c r="DL28" s="8"/>
     </row>
     <row r="29" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -3683,10 +3710,10 @@
       <c r="DL29" s="8"/>
     </row>
     <row r="30" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -3800,10 +3827,10 @@
       <c r="DL30" s="8"/>
     </row>
     <row r="31" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -3917,10 +3944,10 @@
       <c r="DL31" s="8"/>
     </row>
     <row r="32" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -4034,10 +4061,10 @@
       <c r="DL32" s="8"/>
     </row>
     <row r="33" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -4151,10 +4178,10 @@
       <c r="DL33" s="8"/>
     </row>
     <row r="34" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -4268,10 +4295,10 @@
       <c r="DL34" s="8"/>
     </row>
     <row r="35" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -4385,10 +4412,10 @@
       <c r="DL35" s="8"/>
     </row>
     <row r="36" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -4502,10 +4529,10 @@
       <c r="DL36" s="8"/>
     </row>
     <row r="37" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -4619,10 +4646,10 @@
       <c r="DL37" s="8"/>
     </row>
     <row r="38" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -4736,10 +4763,10 @@
       <c r="DL38" s="8"/>
     </row>
     <row r="39" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -4853,10 +4880,10 @@
       <c r="DL39" s="8"/>
     </row>
     <row r="40" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -4970,10 +4997,10 @@
       <c r="DL40" s="8"/>
     </row>
     <row r="41" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -5087,10 +5114,10 @@
       <c r="DL41" s="8"/>
     </row>
     <row r="42" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -5204,10 +5231,10 @@
       <c r="DL42" s="8"/>
     </row>
     <row r="43" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -5321,10 +5348,10 @@
       <c r="DL43" s="8"/>
     </row>
     <row r="44" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -5438,213 +5465,535 @@
       <c r="DL44" s="8"/>
     </row>
     <row r="45" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
-      <c r="T45" s="15"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="15"/>
-      <c r="X45" s="15"/>
-      <c r="Y45" s="15"/>
-      <c r="Z45" s="15"/>
-      <c r="AA45" s="15"/>
-      <c r="AB45" s="15"/>
-      <c r="AC45" s="15"/>
-      <c r="AD45" s="15"/>
-      <c r="AE45" s="15"/>
-      <c r="AF45" s="15"/>
-      <c r="AG45" s="15"/>
-      <c r="AH45" s="15"/>
-      <c r="AI45" s="15"/>
-      <c r="AJ45" s="15"/>
-      <c r="AK45" s="15"/>
-      <c r="AL45" s="15"/>
-      <c r="AM45" s="15"/>
-      <c r="AN45" s="15"/>
-      <c r="AO45" s="15"/>
-      <c r="AP45" s="15"/>
-      <c r="AQ45" s="15"/>
-      <c r="AR45" s="15"/>
-      <c r="AS45" s="15"/>
-      <c r="AT45" s="15"/>
-      <c r="AU45" s="15"/>
-      <c r="AV45" s="15"/>
-      <c r="AW45" s="15"/>
-      <c r="AX45" s="15"/>
-      <c r="AY45" s="15"/>
-      <c r="AZ45" s="15"/>
-      <c r="BA45" s="15"/>
-      <c r="BB45" s="15"/>
-      <c r="BC45" s="15"/>
-      <c r="BD45" s="15"/>
-      <c r="BE45" s="15"/>
-      <c r="BF45" s="15"/>
-      <c r="BG45" s="15"/>
-      <c r="BH45" s="15"/>
-      <c r="BI45" s="15"/>
-      <c r="BJ45" s="15"/>
-      <c r="BK45" s="15"/>
-      <c r="BL45" s="15"/>
-      <c r="BM45" s="15"/>
-      <c r="BN45" s="15"/>
-      <c r="BO45" s="15"/>
-      <c r="BP45" s="15"/>
-      <c r="BQ45" s="15"/>
-      <c r="BR45" s="15"/>
-      <c r="BS45" s="15"/>
-      <c r="BT45" s="15"/>
-      <c r="BU45" s="15"/>
-      <c r="BV45" s="15"/>
-      <c r="BW45" s="15"/>
-      <c r="BX45" s="15"/>
-      <c r="BY45" s="15"/>
-      <c r="BZ45" s="15"/>
-      <c r="CA45" s="15"/>
-      <c r="CB45" s="15"/>
-      <c r="CC45" s="15"/>
-      <c r="CD45" s="15"/>
-      <c r="CE45" s="15"/>
-      <c r="CF45" s="15"/>
-      <c r="CG45" s="15"/>
-      <c r="CH45" s="15"/>
-      <c r="CI45" s="15"/>
-      <c r="CJ45" s="15"/>
-      <c r="CK45" s="15"/>
-      <c r="CL45" s="15"/>
-      <c r="CM45" s="15"/>
-      <c r="CN45" s="15"/>
-      <c r="CO45" s="15"/>
-      <c r="CP45" s="15"/>
-      <c r="CQ45" s="15"/>
-      <c r="CR45" s="15"/>
-      <c r="CS45" s="15"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="8"/>
+      <c r="AK45" s="8"/>
+      <c r="AL45" s="8"/>
+      <c r="AM45" s="8"/>
+      <c r="AN45" s="8"/>
+      <c r="AO45" s="8"/>
+      <c r="AP45" s="8"/>
+      <c r="AQ45" s="8"/>
+      <c r="AR45" s="8"/>
+      <c r="AS45" s="8"/>
+      <c r="AT45" s="8"/>
+      <c r="AU45" s="8"/>
+      <c r="AV45" s="8"/>
+      <c r="AW45" s="8"/>
+      <c r="AX45" s="8"/>
+      <c r="AY45" s="8"/>
+      <c r="AZ45" s="8"/>
+      <c r="BA45" s="8"/>
+      <c r="BB45" s="8"/>
+      <c r="BC45" s="8"/>
+      <c r="BD45" s="8"/>
+      <c r="BE45" s="8"/>
+      <c r="BF45" s="8"/>
+      <c r="BG45" s="8"/>
+      <c r="BH45" s="8"/>
+      <c r="BI45" s="8"/>
+      <c r="BJ45" s="8"/>
+      <c r="BK45" s="8"/>
+      <c r="BL45" s="8"/>
+      <c r="BM45" s="8"/>
+      <c r="BN45" s="8"/>
+      <c r="BO45" s="8"/>
+      <c r="BP45" s="8"/>
+      <c r="BQ45" s="8"/>
+      <c r="BR45" s="8"/>
+      <c r="BS45" s="8"/>
+      <c r="BT45" s="8"/>
+      <c r="BU45" s="8"/>
+      <c r="BV45" s="8"/>
+      <c r="BW45" s="8"/>
+      <c r="BX45" s="8"/>
+      <c r="BY45" s="8"/>
+      <c r="BZ45" s="8"/>
+      <c r="CA45" s="8"/>
+      <c r="CB45" s="8"/>
+      <c r="CC45" s="8"/>
+      <c r="CD45" s="8"/>
+      <c r="CE45" s="8"/>
+      <c r="CF45" s="8"/>
+      <c r="CG45" s="8"/>
+      <c r="CH45" s="8"/>
+      <c r="CI45" s="8"/>
+      <c r="CJ45" s="8"/>
+      <c r="CK45" s="8"/>
+      <c r="CL45" s="8"/>
+      <c r="CM45" s="8"/>
+      <c r="CN45" s="8"/>
+      <c r="CO45" s="8"/>
+      <c r="CP45" s="8"/>
+      <c r="CQ45" s="8"/>
+      <c r="CR45" s="8"/>
+      <c r="CS45" s="8"/>
+      <c r="CT45" s="8"/>
+      <c r="CU45" s="8"/>
+      <c r="CV45" s="8"/>
+      <c r="CW45" s="8"/>
+      <c r="CX45" s="8"/>
+      <c r="CY45" s="8"/>
+      <c r="CZ45" s="8"/>
+      <c r="DA45" s="8"/>
+      <c r="DB45" s="8"/>
+      <c r="DC45" s="8"/>
+      <c r="DD45" s="8"/>
+      <c r="DE45" s="8"/>
+      <c r="DF45" s="8"/>
+      <c r="DG45" s="8"/>
+      <c r="DH45" s="8"/>
+      <c r="DI45" s="8"/>
+      <c r="DJ45" s="8"/>
+      <c r="DK45" s="8"/>
+      <c r="DL45" s="8"/>
     </row>
     <row r="46" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="15"/>
-      <c r="S46" s="15"/>
-      <c r="T46" s="15"/>
-      <c r="U46" s="15"/>
-      <c r="V46" s="15"/>
-      <c r="W46" s="15"/>
-      <c r="X46" s="15"/>
-      <c r="Y46" s="15"/>
-      <c r="Z46" s="15"/>
-      <c r="AA46" s="15"/>
-      <c r="AB46" s="15"/>
-      <c r="AC46" s="15"/>
-      <c r="AD46" s="15"/>
-      <c r="AE46" s="15"/>
-      <c r="AF46" s="15"/>
-      <c r="AG46" s="15"/>
-      <c r="AH46" s="15"/>
-      <c r="AI46" s="15"/>
-      <c r="AJ46" s="15"/>
-      <c r="AK46" s="15"/>
-      <c r="AL46" s="15"/>
-      <c r="AM46" s="15"/>
-      <c r="AN46" s="15"/>
-      <c r="AO46" s="15"/>
-      <c r="AP46" s="15"/>
-      <c r="AQ46" s="15"/>
-      <c r="AR46" s="15"/>
-      <c r="AS46" s="15"/>
-      <c r="AT46" s="15"/>
-      <c r="AU46" s="15"/>
-      <c r="AV46" s="15"/>
-      <c r="AW46" s="15"/>
-      <c r="AX46" s="15"/>
-      <c r="AY46" s="15"/>
-      <c r="AZ46" s="15"/>
-      <c r="BA46" s="15"/>
-      <c r="BB46" s="15"/>
-      <c r="BC46" s="15"/>
-      <c r="BD46" s="15"/>
-      <c r="BE46" s="15"/>
-      <c r="BF46" s="15"/>
-      <c r="BG46" s="15"/>
-      <c r="BH46" s="15"/>
-      <c r="BI46" s="15"/>
-      <c r="BJ46" s="15"/>
-      <c r="BK46" s="15"/>
-      <c r="BL46" s="15"/>
-      <c r="BM46" s="15"/>
-      <c r="BN46" s="15"/>
-      <c r="BO46" s="15"/>
-      <c r="BP46" s="15"/>
-      <c r="BQ46" s="15"/>
-      <c r="BR46" s="15"/>
-      <c r="BS46" s="15"/>
-      <c r="BT46" s="15"/>
-      <c r="BU46" s="15"/>
-      <c r="BV46" s="15"/>
-      <c r="BW46" s="15"/>
-      <c r="BX46" s="15"/>
-      <c r="BY46" s="15"/>
-      <c r="BZ46" s="15"/>
-      <c r="CA46" s="15"/>
-      <c r="CB46" s="15"/>
-      <c r="CC46" s="15"/>
-      <c r="CD46" s="15"/>
-      <c r="CE46" s="15"/>
-      <c r="CF46" s="15"/>
-      <c r="CG46" s="15"/>
-      <c r="CH46" s="15"/>
-      <c r="CI46" s="15"/>
-      <c r="CJ46" s="15"/>
-      <c r="CK46" s="15"/>
-      <c r="CL46" s="15"/>
-      <c r="CM46" s="15"/>
-      <c r="CN46" s="15"/>
-      <c r="CO46" s="15"/>
-      <c r="CP46" s="15"/>
-      <c r="CQ46" s="15"/>
-      <c r="CR46" s="15"/>
-      <c r="CS46" s="15"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="6"/>
+      <c r="AF46" s="6"/>
+      <c r="AG46" s="6"/>
+      <c r="AH46" s="6"/>
+      <c r="AI46" s="6"/>
+      <c r="AJ46" s="6"/>
+      <c r="AK46" s="6"/>
+      <c r="AL46" s="6"/>
+      <c r="AM46" s="6"/>
+      <c r="AN46" s="6"/>
+      <c r="AO46" s="6"/>
+      <c r="AP46" s="6"/>
+      <c r="AQ46" s="6"/>
+      <c r="AR46" s="6"/>
+      <c r="AS46" s="6"/>
+      <c r="AT46" s="6"/>
+      <c r="AU46" s="6"/>
+      <c r="AV46" s="6"/>
+      <c r="AW46" s="6"/>
+      <c r="AX46" s="6"/>
+      <c r="AY46" s="6"/>
+      <c r="AZ46" s="6"/>
+      <c r="BA46" s="6"/>
+      <c r="BB46" s="6"/>
+      <c r="BC46" s="6"/>
+      <c r="BD46" s="6"/>
+      <c r="BE46" s="6"/>
+      <c r="BF46" s="6"/>
+      <c r="BG46" s="6"/>
+      <c r="BH46" s="6"/>
+      <c r="BI46" s="6"/>
+      <c r="BJ46" s="6"/>
+      <c r="BK46" s="6"/>
+      <c r="BL46" s="6"/>
+      <c r="BM46" s="6"/>
+      <c r="BN46" s="6"/>
+      <c r="BO46" s="6"/>
+      <c r="BP46" s="6"/>
+      <c r="BQ46" s="6"/>
+      <c r="BR46" s="6"/>
+      <c r="BS46" s="6"/>
+      <c r="BT46" s="6"/>
+      <c r="BU46" s="6"/>
+      <c r="BV46" s="6"/>
+      <c r="BW46" s="6"/>
+      <c r="BX46" s="6"/>
+      <c r="BY46" s="6"/>
+      <c r="BZ46" s="6"/>
+      <c r="CA46" s="6"/>
+      <c r="CB46" s="6"/>
+      <c r="CC46" s="6"/>
+      <c r="CD46" s="6"/>
+      <c r="CE46" s="6"/>
+      <c r="CF46" s="6"/>
+      <c r="CG46" s="6"/>
+      <c r="CH46" s="6"/>
+      <c r="CI46" s="6"/>
+      <c r="CJ46" s="6"/>
+      <c r="CK46" s="6"/>
+      <c r="CL46" s="6"/>
+      <c r="CM46" s="6"/>
+      <c r="CN46" s="6"/>
+      <c r="CO46" s="6"/>
+      <c r="CP46" s="6"/>
+      <c r="CQ46" s="6"/>
+      <c r="CR46" s="6"/>
+      <c r="CS46" s="6"/>
+    </row>
+    <row r="47" spans="2:116" x14ac:dyDescent="0.2">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="6"/>
+      <c r="AF47" s="6"/>
+      <c r="AG47" s="6"/>
+      <c r="AH47" s="6"/>
+      <c r="AI47" s="6"/>
+      <c r="AJ47" s="6"/>
+      <c r="AK47" s="6"/>
+      <c r="AL47" s="6"/>
+      <c r="AM47" s="6"/>
+      <c r="AN47" s="6"/>
+      <c r="AO47" s="6"/>
+      <c r="AP47" s="6"/>
+      <c r="AQ47" s="6"/>
+      <c r="AR47" s="6"/>
+      <c r="AS47" s="6"/>
+      <c r="AT47" s="6"/>
+      <c r="AU47" s="6"/>
+      <c r="AV47" s="6"/>
+      <c r="AW47" s="6"/>
+      <c r="AX47" s="6"/>
+      <c r="AY47" s="6"/>
+      <c r="AZ47" s="6"/>
+      <c r="BA47" s="6"/>
+      <c r="BB47" s="6"/>
+      <c r="BC47" s="6"/>
+      <c r="BD47" s="6"/>
+      <c r="BE47" s="6"/>
+      <c r="BF47" s="6"/>
+      <c r="BG47" s="6"/>
+      <c r="BH47" s="6"/>
+      <c r="BI47" s="6"/>
+      <c r="BJ47" s="6"/>
+      <c r="BK47" s="6"/>
+      <c r="BL47" s="6"/>
+      <c r="BM47" s="6"/>
+      <c r="BN47" s="6"/>
+      <c r="BO47" s="6"/>
+      <c r="BP47" s="6"/>
+      <c r="BQ47" s="6"/>
+      <c r="BR47" s="6"/>
+      <c r="BS47" s="6"/>
+      <c r="BT47" s="6"/>
+      <c r="BU47" s="6"/>
+      <c r="BV47" s="6"/>
+      <c r="BW47" s="6"/>
+      <c r="BX47" s="6"/>
+      <c r="BY47" s="6"/>
+      <c r="BZ47" s="6"/>
+      <c r="CA47" s="6"/>
+      <c r="CB47" s="6"/>
+      <c r="CC47" s="6"/>
+      <c r="CD47" s="6"/>
+      <c r="CE47" s="6"/>
+      <c r="CF47" s="6"/>
+      <c r="CG47" s="6"/>
+      <c r="CH47" s="6"/>
+      <c r="CI47" s="6"/>
+      <c r="CJ47" s="6"/>
+      <c r="CK47" s="6"/>
+      <c r="CL47" s="6"/>
+      <c r="CM47" s="6"/>
+      <c r="CN47" s="6"/>
+      <c r="CO47" s="6"/>
+      <c r="CP47" s="6"/>
+      <c r="CQ47" s="6"/>
+      <c r="CR47" s="6"/>
+      <c r="CS47" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="F45:S45"/>
-    <mergeCell ref="T45:BB45"/>
-    <mergeCell ref="BC45:BZ45"/>
-    <mergeCell ref="CA45:CS45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="F46:S46"/>
-    <mergeCell ref="T46:BB46"/>
-    <mergeCell ref="BC46:BZ46"/>
-    <mergeCell ref="CA46:CS46"/>
+  <mergeCells count="243">
+    <mergeCell ref="A2:DP2"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="M4:AL4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="M5:AL5"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:S8"/>
+    <mergeCell ref="T8:BB8"/>
+    <mergeCell ref="BC8:BZ8"/>
+    <mergeCell ref="CA8:CS8"/>
+    <mergeCell ref="CT8:DL8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:S9"/>
+    <mergeCell ref="T9:BB9"/>
+    <mergeCell ref="BC9:BZ9"/>
+    <mergeCell ref="CA9:CS9"/>
+    <mergeCell ref="CT9:DL9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:S10"/>
+    <mergeCell ref="T10:BB10"/>
+    <mergeCell ref="BC10:BZ10"/>
+    <mergeCell ref="CA10:CS10"/>
+    <mergeCell ref="CT10:DL10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:S11"/>
+    <mergeCell ref="T11:BB11"/>
+    <mergeCell ref="BC11:BZ11"/>
+    <mergeCell ref="CA11:CS11"/>
+    <mergeCell ref="CT11:DL11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:S12"/>
+    <mergeCell ref="T12:BB12"/>
+    <mergeCell ref="BC12:BZ12"/>
+    <mergeCell ref="CA12:CS12"/>
+    <mergeCell ref="CT12:DL12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:S13"/>
+    <mergeCell ref="T13:BB13"/>
+    <mergeCell ref="BC13:BZ13"/>
+    <mergeCell ref="CA13:CS13"/>
+    <mergeCell ref="CT13:DL13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:S14"/>
+    <mergeCell ref="T14:BB14"/>
+    <mergeCell ref="BC14:BZ14"/>
+    <mergeCell ref="CA14:CS14"/>
+    <mergeCell ref="CT14:DL14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:S15"/>
+    <mergeCell ref="T15:BB15"/>
+    <mergeCell ref="BC15:BZ15"/>
+    <mergeCell ref="CA15:CS15"/>
+    <mergeCell ref="CT15:DL15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:S16"/>
+    <mergeCell ref="T16:BB16"/>
+    <mergeCell ref="BC16:BZ16"/>
+    <mergeCell ref="CA16:CS16"/>
+    <mergeCell ref="CT16:DL16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:S17"/>
+    <mergeCell ref="T17:BB17"/>
+    <mergeCell ref="BC17:BZ17"/>
+    <mergeCell ref="CA17:CS17"/>
+    <mergeCell ref="CT17:DL17"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:S19"/>
+    <mergeCell ref="T19:BB19"/>
+    <mergeCell ref="BC19:BZ19"/>
+    <mergeCell ref="CA19:CS19"/>
+    <mergeCell ref="CT19:DL19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:S18"/>
+    <mergeCell ref="T18:BB18"/>
+    <mergeCell ref="BC18:BZ18"/>
+    <mergeCell ref="CA18:CS18"/>
+    <mergeCell ref="CT18:DL18"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:S20"/>
+    <mergeCell ref="T20:BB20"/>
+    <mergeCell ref="BC20:BZ20"/>
+    <mergeCell ref="CA20:CS20"/>
+    <mergeCell ref="CT20:DL20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:S21"/>
+    <mergeCell ref="T21:BB21"/>
+    <mergeCell ref="BC21:BZ21"/>
+    <mergeCell ref="CA21:CS21"/>
+    <mergeCell ref="CT21:DL21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:S22"/>
+    <mergeCell ref="T22:BB22"/>
+    <mergeCell ref="BC22:BZ22"/>
+    <mergeCell ref="CA22:CS22"/>
+    <mergeCell ref="CT22:DL22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:S23"/>
+    <mergeCell ref="T23:BB23"/>
+    <mergeCell ref="BC23:BZ23"/>
+    <mergeCell ref="CA23:CS23"/>
+    <mergeCell ref="CT23:DL23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:S24"/>
+    <mergeCell ref="T24:BB24"/>
+    <mergeCell ref="BC24:BZ24"/>
+    <mergeCell ref="CA24:CS24"/>
+    <mergeCell ref="CT24:DL24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:S25"/>
+    <mergeCell ref="T25:BB25"/>
+    <mergeCell ref="BC25:BZ25"/>
+    <mergeCell ref="CA25:CS25"/>
+    <mergeCell ref="CT25:DL25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:S26"/>
+    <mergeCell ref="T26:BB26"/>
+    <mergeCell ref="BC26:BZ26"/>
+    <mergeCell ref="CA26:CS26"/>
+    <mergeCell ref="CT26:DL26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:S27"/>
+    <mergeCell ref="T27:BB27"/>
+    <mergeCell ref="BC27:BZ27"/>
+    <mergeCell ref="CA27:CS27"/>
+    <mergeCell ref="CT27:DL27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:S28"/>
+    <mergeCell ref="T28:BB28"/>
+    <mergeCell ref="BC28:BZ28"/>
+    <mergeCell ref="CA28:CS28"/>
+    <mergeCell ref="CT28:DL28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:S29"/>
+    <mergeCell ref="T29:BB29"/>
+    <mergeCell ref="BC29:BZ29"/>
+    <mergeCell ref="CA29:CS29"/>
+    <mergeCell ref="CT29:DL29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:S30"/>
+    <mergeCell ref="T30:BB30"/>
+    <mergeCell ref="BC30:BZ30"/>
+    <mergeCell ref="CA30:CS30"/>
+    <mergeCell ref="CT30:DL30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:S31"/>
+    <mergeCell ref="T31:BB31"/>
+    <mergeCell ref="BC31:BZ31"/>
+    <mergeCell ref="CA31:CS31"/>
+    <mergeCell ref="CT31:DL31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:S32"/>
+    <mergeCell ref="T32:BB32"/>
+    <mergeCell ref="BC32:BZ32"/>
+    <mergeCell ref="CA32:CS32"/>
+    <mergeCell ref="CT32:DL32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:S33"/>
+    <mergeCell ref="T33:BB33"/>
+    <mergeCell ref="BC33:BZ33"/>
+    <mergeCell ref="CA33:CS33"/>
+    <mergeCell ref="CT33:DL33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:S34"/>
+    <mergeCell ref="T34:BB34"/>
+    <mergeCell ref="BC34:BZ34"/>
+    <mergeCell ref="CA34:CS34"/>
+    <mergeCell ref="CT34:DL34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:S35"/>
+    <mergeCell ref="T35:BB35"/>
+    <mergeCell ref="BC35:BZ35"/>
+    <mergeCell ref="CA35:CS35"/>
+    <mergeCell ref="CT35:DL35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:S36"/>
+    <mergeCell ref="T36:BB36"/>
+    <mergeCell ref="BC36:BZ36"/>
+    <mergeCell ref="CA36:CS36"/>
+    <mergeCell ref="CT36:DL36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:S37"/>
+    <mergeCell ref="T37:BB37"/>
+    <mergeCell ref="BC37:BZ37"/>
+    <mergeCell ref="CA37:CS37"/>
+    <mergeCell ref="CT37:DL37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:S38"/>
+    <mergeCell ref="T38:BB38"/>
+    <mergeCell ref="BC38:BZ38"/>
+    <mergeCell ref="CA38:CS38"/>
+    <mergeCell ref="CT38:DL38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:S39"/>
+    <mergeCell ref="T39:BB39"/>
+    <mergeCell ref="BC39:BZ39"/>
+    <mergeCell ref="CA39:CS39"/>
+    <mergeCell ref="CT39:DL39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:S40"/>
+    <mergeCell ref="T40:BB40"/>
+    <mergeCell ref="BC40:BZ40"/>
+    <mergeCell ref="CA40:CS40"/>
+    <mergeCell ref="CT40:DL40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="F41:S41"/>
+    <mergeCell ref="T41:BB41"/>
+    <mergeCell ref="BC41:BZ41"/>
+    <mergeCell ref="CA41:CS41"/>
+    <mergeCell ref="CT41:DL41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:S42"/>
+    <mergeCell ref="T42:BB42"/>
+    <mergeCell ref="BC42:BZ42"/>
+    <mergeCell ref="CA42:CS42"/>
+    <mergeCell ref="CT42:DL42"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="F43:S43"/>
     <mergeCell ref="T43:BB43"/>
@@ -5657,221 +6006,22 @@
     <mergeCell ref="BC44:BZ44"/>
     <mergeCell ref="CA44:CS44"/>
     <mergeCell ref="CT44:DL44"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="F41:S41"/>
-    <mergeCell ref="T41:BB41"/>
-    <mergeCell ref="BC41:BZ41"/>
-    <mergeCell ref="CA41:CS41"/>
-    <mergeCell ref="CT41:DL41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:S42"/>
-    <mergeCell ref="T42:BB42"/>
-    <mergeCell ref="BC42:BZ42"/>
-    <mergeCell ref="CA42:CS42"/>
-    <mergeCell ref="CT42:DL42"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:S39"/>
-    <mergeCell ref="T39:BB39"/>
-    <mergeCell ref="BC39:BZ39"/>
-    <mergeCell ref="CA39:CS39"/>
-    <mergeCell ref="CT39:DL39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:S40"/>
-    <mergeCell ref="T40:BB40"/>
-    <mergeCell ref="BC40:BZ40"/>
-    <mergeCell ref="CA40:CS40"/>
-    <mergeCell ref="CT40:DL40"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:S37"/>
-    <mergeCell ref="T37:BB37"/>
-    <mergeCell ref="BC37:BZ37"/>
-    <mergeCell ref="CA37:CS37"/>
-    <mergeCell ref="CT37:DL37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:S38"/>
-    <mergeCell ref="T38:BB38"/>
-    <mergeCell ref="BC38:BZ38"/>
-    <mergeCell ref="CA38:CS38"/>
-    <mergeCell ref="CT38:DL38"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:S35"/>
-    <mergeCell ref="T35:BB35"/>
-    <mergeCell ref="BC35:BZ35"/>
-    <mergeCell ref="CA35:CS35"/>
-    <mergeCell ref="CT35:DL35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:S36"/>
-    <mergeCell ref="T36:BB36"/>
-    <mergeCell ref="BC36:BZ36"/>
-    <mergeCell ref="CA36:CS36"/>
-    <mergeCell ref="CT36:DL36"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:S33"/>
-    <mergeCell ref="T33:BB33"/>
-    <mergeCell ref="BC33:BZ33"/>
-    <mergeCell ref="CA33:CS33"/>
-    <mergeCell ref="CT33:DL33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:S34"/>
-    <mergeCell ref="T34:BB34"/>
-    <mergeCell ref="BC34:BZ34"/>
-    <mergeCell ref="CA34:CS34"/>
-    <mergeCell ref="CT34:DL34"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:S31"/>
-    <mergeCell ref="T31:BB31"/>
-    <mergeCell ref="BC31:BZ31"/>
-    <mergeCell ref="CA31:CS31"/>
-    <mergeCell ref="CT31:DL31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:S32"/>
-    <mergeCell ref="T32:BB32"/>
-    <mergeCell ref="BC32:BZ32"/>
-    <mergeCell ref="CA32:CS32"/>
-    <mergeCell ref="CT32:DL32"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:S29"/>
-    <mergeCell ref="T29:BB29"/>
-    <mergeCell ref="BC29:BZ29"/>
-    <mergeCell ref="CA29:CS29"/>
-    <mergeCell ref="CT29:DL29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:S30"/>
-    <mergeCell ref="T30:BB30"/>
-    <mergeCell ref="BC30:BZ30"/>
-    <mergeCell ref="CA30:CS30"/>
-    <mergeCell ref="CT30:DL30"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:S27"/>
-    <mergeCell ref="T27:BB27"/>
-    <mergeCell ref="BC27:BZ27"/>
-    <mergeCell ref="CA27:CS27"/>
-    <mergeCell ref="CT27:DL27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:S28"/>
-    <mergeCell ref="T28:BB28"/>
-    <mergeCell ref="BC28:BZ28"/>
-    <mergeCell ref="CA28:CS28"/>
-    <mergeCell ref="CT28:DL28"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:S25"/>
-    <mergeCell ref="T25:BB25"/>
-    <mergeCell ref="BC25:BZ25"/>
-    <mergeCell ref="CA25:CS25"/>
-    <mergeCell ref="CT25:DL25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:S26"/>
-    <mergeCell ref="T26:BB26"/>
-    <mergeCell ref="BC26:BZ26"/>
-    <mergeCell ref="CA26:CS26"/>
-    <mergeCell ref="CT26:DL26"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:S23"/>
-    <mergeCell ref="T23:BB23"/>
-    <mergeCell ref="BC23:BZ23"/>
-    <mergeCell ref="CA23:CS23"/>
-    <mergeCell ref="CT23:DL23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:S24"/>
-    <mergeCell ref="T24:BB24"/>
-    <mergeCell ref="BC24:BZ24"/>
-    <mergeCell ref="CA24:CS24"/>
-    <mergeCell ref="CT24:DL24"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:S21"/>
-    <mergeCell ref="T21:BB21"/>
-    <mergeCell ref="BC21:BZ21"/>
-    <mergeCell ref="CA21:CS21"/>
-    <mergeCell ref="CT21:DL21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:S22"/>
-    <mergeCell ref="T22:BB22"/>
-    <mergeCell ref="BC22:BZ22"/>
-    <mergeCell ref="CA22:CS22"/>
-    <mergeCell ref="CT22:DL22"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:S19"/>
-    <mergeCell ref="T19:BB19"/>
-    <mergeCell ref="BC19:BZ19"/>
-    <mergeCell ref="CA19:CS19"/>
-    <mergeCell ref="CT19:DL19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:S20"/>
-    <mergeCell ref="T20:BB20"/>
-    <mergeCell ref="BC20:BZ20"/>
-    <mergeCell ref="CA20:CS20"/>
-    <mergeCell ref="CT20:DL20"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:S17"/>
-    <mergeCell ref="T17:BB17"/>
-    <mergeCell ref="BC17:BZ17"/>
-    <mergeCell ref="CA17:CS17"/>
-    <mergeCell ref="CT17:DL17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:S18"/>
-    <mergeCell ref="T18:BB18"/>
-    <mergeCell ref="BC18:BZ18"/>
-    <mergeCell ref="CA18:CS18"/>
-    <mergeCell ref="CT18:DL18"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:S15"/>
-    <mergeCell ref="T15:BB15"/>
-    <mergeCell ref="BC15:BZ15"/>
-    <mergeCell ref="CA15:CS15"/>
-    <mergeCell ref="CT15:DL15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:S16"/>
-    <mergeCell ref="T16:BB16"/>
-    <mergeCell ref="BC16:BZ16"/>
-    <mergeCell ref="CA16:CS16"/>
-    <mergeCell ref="CT16:DL16"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:S13"/>
-    <mergeCell ref="T13:BB13"/>
-    <mergeCell ref="BC13:BZ13"/>
-    <mergeCell ref="CA13:CS13"/>
-    <mergeCell ref="CT13:DL13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:S14"/>
-    <mergeCell ref="T14:BB14"/>
-    <mergeCell ref="BC14:BZ14"/>
-    <mergeCell ref="CA14:CS14"/>
-    <mergeCell ref="CT14:DL14"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:S11"/>
-    <mergeCell ref="T11:BB11"/>
-    <mergeCell ref="BC11:BZ11"/>
-    <mergeCell ref="CA11:CS11"/>
-    <mergeCell ref="CT11:DL11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:S12"/>
-    <mergeCell ref="T12:BB12"/>
-    <mergeCell ref="BC12:BZ12"/>
-    <mergeCell ref="CA12:CS12"/>
-    <mergeCell ref="CT12:DL12"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:S9"/>
-    <mergeCell ref="T9:BB9"/>
-    <mergeCell ref="BC9:BZ9"/>
-    <mergeCell ref="CA9:CS9"/>
-    <mergeCell ref="CT9:DL9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:S10"/>
-    <mergeCell ref="T10:BB10"/>
-    <mergeCell ref="BC10:BZ10"/>
-    <mergeCell ref="CA10:CS10"/>
-    <mergeCell ref="CT10:DL10"/>
-    <mergeCell ref="A2:DP2"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="M4:AL4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="M5:AL5"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:S8"/>
-    <mergeCell ref="T8:BB8"/>
-    <mergeCell ref="BC8:BZ8"/>
-    <mergeCell ref="CA8:CS8"/>
-    <mergeCell ref="CT8:DL8"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="F45:S45"/>
+    <mergeCell ref="T45:BB45"/>
+    <mergeCell ref="BC45:BZ45"/>
+    <mergeCell ref="CA45:CS45"/>
+    <mergeCell ref="CT45:DL45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="F46:S46"/>
+    <mergeCell ref="T46:BB46"/>
+    <mergeCell ref="BC46:BZ46"/>
+    <mergeCell ref="CA46:CS46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F47:S47"/>
+    <mergeCell ref="T47:BB47"/>
+    <mergeCell ref="BC47:BZ47"/>
+    <mergeCell ref="CA47:CS47"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -5880,10 +6030,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:CG32"/>
+  <dimension ref="B2:CG33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI13" sqref="AI13:AY13"/>
+      <selection activeCell="AI15" sqref="AI15:AY15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.6328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5892,190 +6042,190 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:85" ht="19" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-      <c r="AY2" s="5"/>
-      <c r="AZ2" s="5"/>
-      <c r="BA2" s="5"/>
-      <c r="BB2" s="5"/>
-      <c r="BC2" s="5"/>
-      <c r="BD2" s="5"/>
-      <c r="BE2" s="5"/>
-      <c r="BF2" s="5"/>
-      <c r="BG2" s="5"/>
-      <c r="BH2" s="5"/>
-      <c r="BI2" s="5"/>
-      <c r="BJ2" s="5"/>
-      <c r="BK2" s="5"/>
-      <c r="BL2" s="5"/>
-      <c r="BM2" s="5"/>
-      <c r="BN2" s="5"/>
-      <c r="BO2" s="5"/>
-      <c r="BP2" s="5"/>
-      <c r="BQ2" s="5"/>
-      <c r="BR2" s="5"/>
-      <c r="BS2" s="5"/>
-      <c r="BT2" s="5"/>
-      <c r="BU2" s="5"/>
-      <c r="BV2" s="5"/>
-      <c r="BW2" s="5"/>
-      <c r="BX2" s="5"/>
-      <c r="BY2" s="5"/>
-      <c r="BZ2" s="5"/>
-      <c r="CA2" s="5"/>
-      <c r="CB2" s="5"/>
-      <c r="CC2" s="5"/>
-      <c r="CD2" s="5"/>
-      <c r="CE2" s="5"/>
-      <c r="CF2" s="5"/>
-      <c r="CG2" s="5"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="13"/>
+      <c r="AR2" s="13"/>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="13"/>
+      <c r="AU2" s="13"/>
+      <c r="AV2" s="13"/>
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="13"/>
+      <c r="AZ2" s="13"/>
+      <c r="BA2" s="13"/>
+      <c r="BB2" s="13"/>
+      <c r="BC2" s="13"/>
+      <c r="BD2" s="13"/>
+      <c r="BE2" s="13"/>
+      <c r="BF2" s="13"/>
+      <c r="BG2" s="13"/>
+      <c r="BH2" s="13"/>
+      <c r="BI2" s="13"/>
+      <c r="BJ2" s="13"/>
+      <c r="BK2" s="13"/>
+      <c r="BL2" s="13"/>
+      <c r="BM2" s="13"/>
+      <c r="BN2" s="13"/>
+      <c r="BO2" s="13"/>
+      <c r="BP2" s="13"/>
+      <c r="BQ2" s="13"/>
+      <c r="BR2" s="13"/>
+      <c r="BS2" s="13"/>
+      <c r="BT2" s="13"/>
+      <c r="BU2" s="13"/>
+      <c r="BV2" s="13"/>
+      <c r="BW2" s="13"/>
+      <c r="BX2" s="13"/>
+      <c r="BY2" s="13"/>
+      <c r="BZ2" s="13"/>
+      <c r="CA2" s="13"/>
+      <c r="CB2" s="13"/>
+      <c r="CC2" s="13"/>
+      <c r="CD2" s="13"/>
+      <c r="CE2" s="13"/>
+      <c r="CF2" s="13"/>
+      <c r="CG2" s="13"/>
     </row>
     <row r="4" spans="2:85" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6" t="s">
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AJ4" s="6"/>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
-      <c r="AO4" s="6"/>
-      <c r="AP4" s="6"/>
-      <c r="AQ4" s="6"/>
-      <c r="AR4" s="6"/>
-      <c r="AS4" s="6"/>
-      <c r="AT4" s="6"/>
-      <c r="AU4" s="6"/>
-      <c r="AV4" s="6"/>
-      <c r="AW4" s="6"/>
-      <c r="AX4" s="6"/>
-      <c r="AY4" s="6"/>
-      <c r="AZ4" s="6" t="s">
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="14"/>
+      <c r="AV4" s="14"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="14"/>
+      <c r="AZ4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="BA4" s="6"/>
-      <c r="BB4" s="6"/>
-      <c r="BC4" s="6"/>
-      <c r="BD4" s="6"/>
-      <c r="BE4" s="6"/>
-      <c r="BF4" s="6"/>
-      <c r="BG4" s="6"/>
-      <c r="BH4" s="6"/>
-      <c r="BI4" s="6"/>
-      <c r="BJ4" s="6"/>
-      <c r="BK4" s="6"/>
-      <c r="BL4" s="6"/>
-      <c r="BM4" s="6"/>
-      <c r="BN4" s="6"/>
-      <c r="BO4" s="6"/>
-      <c r="BP4" s="6"/>
-      <c r="BQ4" s="6" t="s">
+      <c r="BA4" s="14"/>
+      <c r="BB4" s="14"/>
+      <c r="BC4" s="14"/>
+      <c r="BD4" s="14"/>
+      <c r="BE4" s="14"/>
+      <c r="BF4" s="14"/>
+      <c r="BG4" s="14"/>
+      <c r="BH4" s="14"/>
+      <c r="BI4" s="14"/>
+      <c r="BJ4" s="14"/>
+      <c r="BK4" s="14"/>
+      <c r="BL4" s="14"/>
+      <c r="BM4" s="14"/>
+      <c r="BN4" s="14"/>
+      <c r="BO4" s="14"/>
+      <c r="BP4" s="14"/>
+      <c r="BQ4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="BR4" s="6"/>
-      <c r="BS4" s="6"/>
-      <c r="BT4" s="6"/>
-      <c r="BU4" s="6"/>
-      <c r="BV4" s="6"/>
-      <c r="BW4" s="6"/>
-      <c r="BX4" s="6"/>
-      <c r="BY4" s="6"/>
-      <c r="BZ4" s="6"/>
-      <c r="CA4" s="6"/>
-      <c r="CB4" s="6"/>
-      <c r="CC4" s="6"/>
-      <c r="CD4" s="6"/>
-      <c r="CE4" s="6"/>
-      <c r="CF4" s="6"/>
-      <c r="CG4" s="6"/>
+      <c r="BR4" s="14"/>
+      <c r="BS4" s="14"/>
+      <c r="BT4" s="14"/>
+      <c r="BU4" s="14"/>
+      <c r="BV4" s="14"/>
+      <c r="BW4" s="14"/>
+      <c r="BX4" s="14"/>
+      <c r="BY4" s="14"/>
+      <c r="BZ4" s="14"/>
+      <c r="CA4" s="14"/>
+      <c r="CB4" s="14"/>
+      <c r="CC4" s="14"/>
+      <c r="CD4" s="14"/>
+      <c r="CE4" s="14"/>
+      <c r="CF4" s="14"/>
+      <c r="CG4" s="14"/>
     </row>
     <row r="5" spans="2:85" x14ac:dyDescent="0.2">
       <c r="B5" s="8">
@@ -6084,8 +6234,8 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="7" t="s">
-        <v>73</v>
+      <c r="F5" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -6195,7 +6345,7 @@
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
@@ -6277,7 +6427,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -6291,7 +6441,7 @@
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
@@ -6310,7 +6460,7 @@
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
       <c r="AI7" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AJ7" s="8"/>
       <c r="AK7" s="8"/>
@@ -6329,7 +6479,7 @@
       <c r="AX7" s="8"/>
       <c r="AY7" s="8"/>
       <c r="AZ7" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BA7" s="8"/>
       <c r="BB7" s="8"/>
@@ -6373,7 +6523,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -6387,7 +6537,7 @@
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
@@ -6406,7 +6556,7 @@
       <c r="AG8" s="8"/>
       <c r="AH8" s="8"/>
       <c r="AI8" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AJ8" s="8"/>
       <c r="AK8" s="8"/>
@@ -6469,7 +6619,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -6483,7 +6633,7 @@
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
@@ -6502,7 +6652,7 @@
       <c r="AG9" s="8"/>
       <c r="AH9" s="8"/>
       <c r="AI9" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AJ9" s="8"/>
       <c r="AK9" s="8"/>
@@ -6565,7 +6715,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -6579,7 +6729,7 @@
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
@@ -6598,7 +6748,7 @@
       <c r="AG10" s="8"/>
       <c r="AH10" s="8"/>
       <c r="AI10" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AJ10" s="8"/>
       <c r="AK10" s="8"/>
@@ -6661,7 +6811,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -6675,7 +6825,7 @@
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
@@ -6694,7 +6844,7 @@
       <c r="AG11" s="8"/>
       <c r="AH11" s="8"/>
       <c r="AI11" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AJ11" s="8"/>
       <c r="AK11" s="8"/>
@@ -6756,8 +6906,8 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="7" t="s">
-        <v>82</v>
+      <c r="F12" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -6771,7 +6921,7 @@
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
@@ -6790,7 +6940,7 @@
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
       <c r="AI12" s="17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AJ12" s="8"/>
       <c r="AK12" s="8"/>
@@ -6852,8 +7002,8 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
+      <c r="F13" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -6867,7 +7017,7 @@
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
@@ -6886,7 +7036,7 @@
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
       <c r="AI13" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AJ13" s="8"/>
       <c r="AK13" s="8"/>
@@ -6948,8 +7098,8 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
-        <v>43</v>
+      <c r="F14" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -6962,8 +7112,8 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
-      <c r="R14" s="16" t="s">
-        <v>34</v>
+      <c r="R14" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
@@ -6981,8 +7131,8 @@
       <c r="AF14" s="8"/>
       <c r="AG14" s="8"/>
       <c r="AH14" s="8"/>
-      <c r="AI14" s="16" t="s">
-        <v>42</v>
+      <c r="AI14" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="AJ14" s="8"/>
       <c r="AK14" s="8"/>
@@ -7044,8 +7194,8 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="7" t="s">
-        <v>72</v>
+      <c r="F15" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -7058,8 +7208,8 @@
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
-      <c r="R15" s="16" t="s">
-        <v>34</v>
+      <c r="R15" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
@@ -7077,8 +7227,8 @@
       <c r="AF15" s="8"/>
       <c r="AG15" s="8"/>
       <c r="AH15" s="8"/>
-      <c r="AI15" s="16" t="s">
-        <v>44</v>
+      <c r="AI15" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="AJ15" s="8"/>
       <c r="AK15" s="8"/>
@@ -7134,11 +7284,15 @@
       <c r="CG15" s="8"/>
     </row>
     <row r="16" spans="2:85" x14ac:dyDescent="0.2">
-      <c r="B16" s="8"/>
+      <c r="B16" s="8">
+        <v>12</v>
+      </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -7150,7 +7304,9 @@
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
+      <c r="R16" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
@@ -7167,7 +7323,9 @@
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
-      <c r="AI16" s="8"/>
+      <c r="AI16" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="AJ16" s="8"/>
       <c r="AK16" s="8"/>
       <c r="AL16" s="8"/>
@@ -7184,7 +7342,9 @@
       <c r="AW16" s="8"/>
       <c r="AX16" s="8"/>
       <c r="AY16" s="8"/>
-      <c r="AZ16" s="8"/>
+      <c r="AZ16" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="BA16" s="8"/>
       <c r="BB16" s="8"/>
       <c r="BC16" s="8"/>
@@ -8595,170 +8755,100 @@
       <c r="CF32" s="8"/>
       <c r="CG32" s="8"/>
     </row>
+    <row r="33" spans="2:85" x14ac:dyDescent="0.2">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8"/>
+      <c r="AM33" s="8"/>
+      <c r="AN33" s="8"/>
+      <c r="AO33" s="8"/>
+      <c r="AP33" s="8"/>
+      <c r="AQ33" s="8"/>
+      <c r="AR33" s="8"/>
+      <c r="AS33" s="8"/>
+      <c r="AT33" s="8"/>
+      <c r="AU33" s="8"/>
+      <c r="AV33" s="8"/>
+      <c r="AW33" s="8"/>
+      <c r="AX33" s="8"/>
+      <c r="AY33" s="8"/>
+      <c r="AZ33" s="8"/>
+      <c r="BA33" s="8"/>
+      <c r="BB33" s="8"/>
+      <c r="BC33" s="8"/>
+      <c r="BD33" s="8"/>
+      <c r="BE33" s="8"/>
+      <c r="BF33" s="8"/>
+      <c r="BG33" s="8"/>
+      <c r="BH33" s="8"/>
+      <c r="BI33" s="8"/>
+      <c r="BJ33" s="8"/>
+      <c r="BK33" s="8"/>
+      <c r="BL33" s="8"/>
+      <c r="BM33" s="8"/>
+      <c r="BN33" s="8"/>
+      <c r="BO33" s="8"/>
+      <c r="BP33" s="8"/>
+      <c r="BQ33" s="8"/>
+      <c r="BR33" s="8"/>
+      <c r="BS33" s="8"/>
+      <c r="BT33" s="8"/>
+      <c r="BU33" s="8"/>
+      <c r="BV33" s="8"/>
+      <c r="BW33" s="8"/>
+      <c r="BX33" s="8"/>
+      <c r="BY33" s="8"/>
+      <c r="BZ33" s="8"/>
+      <c r="CA33" s="8"/>
+      <c r="CB33" s="8"/>
+      <c r="CC33" s="8"/>
+      <c r="CD33" s="8"/>
+      <c r="CE33" s="8"/>
+      <c r="CF33" s="8"/>
+      <c r="CG33" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="175">
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:Q32"/>
-    <mergeCell ref="R32:AH32"/>
-    <mergeCell ref="AI32:AY32"/>
-    <mergeCell ref="AZ32:BP32"/>
-    <mergeCell ref="BQ32:CG32"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:Q30"/>
-    <mergeCell ref="R30:AH30"/>
-    <mergeCell ref="AI30:AY30"/>
-    <mergeCell ref="AZ30:BP30"/>
-    <mergeCell ref="BQ30:CG30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:Q31"/>
-    <mergeCell ref="R31:AH31"/>
-    <mergeCell ref="AI31:AY31"/>
-    <mergeCell ref="AZ31:BP31"/>
-    <mergeCell ref="BQ31:CG31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:Q28"/>
-    <mergeCell ref="R28:AH28"/>
-    <mergeCell ref="AI28:AY28"/>
-    <mergeCell ref="AZ28:BP28"/>
-    <mergeCell ref="BQ28:CG28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:Q29"/>
-    <mergeCell ref="R29:AH29"/>
-    <mergeCell ref="AI29:AY29"/>
-    <mergeCell ref="AZ29:BP29"/>
-    <mergeCell ref="BQ29:CG29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:Q26"/>
-    <mergeCell ref="R26:AH26"/>
-    <mergeCell ref="AI26:AY26"/>
-    <mergeCell ref="AZ26:BP26"/>
-    <mergeCell ref="BQ26:CG26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:Q27"/>
-    <mergeCell ref="R27:AH27"/>
-    <mergeCell ref="AI27:AY27"/>
-    <mergeCell ref="AZ27:BP27"/>
-    <mergeCell ref="BQ27:CG27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:Q24"/>
-    <mergeCell ref="R24:AH24"/>
-    <mergeCell ref="AI24:AY24"/>
-    <mergeCell ref="AZ24:BP24"/>
-    <mergeCell ref="BQ24:CG24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:Q25"/>
-    <mergeCell ref="R25:AH25"/>
-    <mergeCell ref="AI25:AY25"/>
-    <mergeCell ref="AZ25:BP25"/>
-    <mergeCell ref="BQ25:CG25"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:Q22"/>
-    <mergeCell ref="R22:AH22"/>
-    <mergeCell ref="AI22:AY22"/>
-    <mergeCell ref="AZ22:BP22"/>
-    <mergeCell ref="BQ22:CG22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:Q23"/>
-    <mergeCell ref="R23:AH23"/>
-    <mergeCell ref="AI23:AY23"/>
-    <mergeCell ref="AZ23:BP23"/>
-    <mergeCell ref="BQ23:CG23"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:Q20"/>
-    <mergeCell ref="R20:AH20"/>
-    <mergeCell ref="AI20:AY20"/>
-    <mergeCell ref="AZ20:BP20"/>
-    <mergeCell ref="BQ20:CG20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:Q21"/>
-    <mergeCell ref="R21:AH21"/>
-    <mergeCell ref="AI21:AY21"/>
-    <mergeCell ref="AZ21:BP21"/>
-    <mergeCell ref="BQ21:CG21"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:Q18"/>
-    <mergeCell ref="R18:AH18"/>
-    <mergeCell ref="AI18:AY18"/>
-    <mergeCell ref="AZ18:BP18"/>
-    <mergeCell ref="BQ18:CG18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:Q19"/>
-    <mergeCell ref="R19:AH19"/>
-    <mergeCell ref="AI19:AY19"/>
-    <mergeCell ref="AZ19:BP19"/>
-    <mergeCell ref="BQ19:CG19"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:Q16"/>
-    <mergeCell ref="R16:AH16"/>
-    <mergeCell ref="AI16:AY16"/>
-    <mergeCell ref="AZ16:BP16"/>
-    <mergeCell ref="BQ16:CG16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:Q17"/>
-    <mergeCell ref="R17:AH17"/>
-    <mergeCell ref="AI17:AY17"/>
-    <mergeCell ref="AZ17:BP17"/>
-    <mergeCell ref="BQ17:CG17"/>
+  <mergeCells count="181">
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="F14:Q14"/>
     <mergeCell ref="R14:AH14"/>
     <mergeCell ref="AI14:AY14"/>
     <mergeCell ref="AZ14:BP14"/>
     <mergeCell ref="BQ14:CG14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:Q15"/>
-    <mergeCell ref="R15:AH15"/>
-    <mergeCell ref="AI15:AY15"/>
-    <mergeCell ref="AZ15:BP15"/>
-    <mergeCell ref="BQ15:CG15"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:Q12"/>
-    <mergeCell ref="R12:AH12"/>
-    <mergeCell ref="AI12:AY12"/>
-    <mergeCell ref="AZ12:BP12"/>
-    <mergeCell ref="BQ12:CG12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:Q13"/>
-    <mergeCell ref="R13:AH13"/>
-    <mergeCell ref="AI13:AY13"/>
-    <mergeCell ref="AZ13:BP13"/>
-    <mergeCell ref="BQ13:CG13"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:Q10"/>
-    <mergeCell ref="R10:AH10"/>
-    <mergeCell ref="AI10:AY10"/>
-    <mergeCell ref="AZ10:BP10"/>
-    <mergeCell ref="BQ10:CG10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:Q11"/>
-    <mergeCell ref="R11:AH11"/>
-    <mergeCell ref="AI11:AY11"/>
-    <mergeCell ref="AZ11:BP11"/>
-    <mergeCell ref="BQ11:CG11"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:Q8"/>
-    <mergeCell ref="R8:AH8"/>
-    <mergeCell ref="AI8:AY8"/>
-    <mergeCell ref="AZ8:BP8"/>
-    <mergeCell ref="BQ8:CG8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:Q9"/>
-    <mergeCell ref="R9:AH9"/>
-    <mergeCell ref="AI9:AY9"/>
-    <mergeCell ref="AZ9:BP9"/>
-    <mergeCell ref="BQ9:CG9"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="R6:AH6"/>
-    <mergeCell ref="AI6:AY6"/>
-    <mergeCell ref="AZ6:BP6"/>
-    <mergeCell ref="BQ6:CG6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:Q7"/>
-    <mergeCell ref="R7:AH7"/>
-    <mergeCell ref="AI7:AY7"/>
-    <mergeCell ref="AZ7:BP7"/>
-    <mergeCell ref="BQ7:CG7"/>
     <mergeCell ref="B2:CG2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:Q4"/>
@@ -8772,6 +8862,168 @@
     <mergeCell ref="AI5:AY5"/>
     <mergeCell ref="AZ5:BP5"/>
     <mergeCell ref="BQ5:CG5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="R6:AH6"/>
+    <mergeCell ref="AI6:AY6"/>
+    <mergeCell ref="AZ6:BP6"/>
+    <mergeCell ref="BQ6:CG6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="R7:AH7"/>
+    <mergeCell ref="AI7:AY7"/>
+    <mergeCell ref="AZ7:BP7"/>
+    <mergeCell ref="BQ7:CG7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:Q8"/>
+    <mergeCell ref="R8:AH8"/>
+    <mergeCell ref="AI8:AY8"/>
+    <mergeCell ref="AZ8:BP8"/>
+    <mergeCell ref="BQ8:CG8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:Q9"/>
+    <mergeCell ref="R9:AH9"/>
+    <mergeCell ref="AI9:AY9"/>
+    <mergeCell ref="AZ9:BP9"/>
+    <mergeCell ref="BQ9:CG9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:Q10"/>
+    <mergeCell ref="R10:AH10"/>
+    <mergeCell ref="AI10:AY10"/>
+    <mergeCell ref="AZ10:BP10"/>
+    <mergeCell ref="BQ10:CG10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:Q11"/>
+    <mergeCell ref="R11:AH11"/>
+    <mergeCell ref="AI11:AY11"/>
+    <mergeCell ref="AZ11:BP11"/>
+    <mergeCell ref="BQ11:CG11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:Q12"/>
+    <mergeCell ref="R12:AH12"/>
+    <mergeCell ref="AI12:AY12"/>
+    <mergeCell ref="AZ12:BP12"/>
+    <mergeCell ref="BQ12:CG12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:Q13"/>
+    <mergeCell ref="R13:AH13"/>
+    <mergeCell ref="AI13:AY13"/>
+    <mergeCell ref="AZ13:BP13"/>
+    <mergeCell ref="BQ13:CG13"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:Q15"/>
+    <mergeCell ref="R15:AH15"/>
+    <mergeCell ref="AI15:AY15"/>
+    <mergeCell ref="AZ15:BP15"/>
+    <mergeCell ref="BQ15:CG15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:Q16"/>
+    <mergeCell ref="R16:AH16"/>
+    <mergeCell ref="AI16:AY16"/>
+    <mergeCell ref="AZ16:BP16"/>
+    <mergeCell ref="BQ16:CG16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:Q17"/>
+    <mergeCell ref="R17:AH17"/>
+    <mergeCell ref="AI17:AY17"/>
+    <mergeCell ref="AZ17:BP17"/>
+    <mergeCell ref="BQ17:CG17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:Q18"/>
+    <mergeCell ref="R18:AH18"/>
+    <mergeCell ref="AI18:AY18"/>
+    <mergeCell ref="AZ18:BP18"/>
+    <mergeCell ref="BQ18:CG18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:Q19"/>
+    <mergeCell ref="R19:AH19"/>
+    <mergeCell ref="AI19:AY19"/>
+    <mergeCell ref="AZ19:BP19"/>
+    <mergeCell ref="BQ19:CG19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:Q20"/>
+    <mergeCell ref="R20:AH20"/>
+    <mergeCell ref="AI20:AY20"/>
+    <mergeCell ref="AZ20:BP20"/>
+    <mergeCell ref="BQ20:CG20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:Q21"/>
+    <mergeCell ref="R21:AH21"/>
+    <mergeCell ref="AI21:AY21"/>
+    <mergeCell ref="AZ21:BP21"/>
+    <mergeCell ref="BQ21:CG21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:Q22"/>
+    <mergeCell ref="R22:AH22"/>
+    <mergeCell ref="AI22:AY22"/>
+    <mergeCell ref="AZ22:BP22"/>
+    <mergeCell ref="BQ22:CG22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:Q23"/>
+    <mergeCell ref="R23:AH23"/>
+    <mergeCell ref="AI23:AY23"/>
+    <mergeCell ref="AZ23:BP23"/>
+    <mergeCell ref="BQ23:CG23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:Q24"/>
+    <mergeCell ref="R24:AH24"/>
+    <mergeCell ref="AI24:AY24"/>
+    <mergeCell ref="AZ24:BP24"/>
+    <mergeCell ref="BQ24:CG24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:Q25"/>
+    <mergeCell ref="R25:AH25"/>
+    <mergeCell ref="AI25:AY25"/>
+    <mergeCell ref="AZ25:BP25"/>
+    <mergeCell ref="BQ25:CG25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:Q26"/>
+    <mergeCell ref="R26:AH26"/>
+    <mergeCell ref="AI26:AY26"/>
+    <mergeCell ref="AZ26:BP26"/>
+    <mergeCell ref="BQ26:CG26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:Q27"/>
+    <mergeCell ref="R27:AH27"/>
+    <mergeCell ref="AI27:AY27"/>
+    <mergeCell ref="AZ27:BP27"/>
+    <mergeCell ref="BQ27:CG27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:Q28"/>
+    <mergeCell ref="R28:AH28"/>
+    <mergeCell ref="AI28:AY28"/>
+    <mergeCell ref="AZ28:BP28"/>
+    <mergeCell ref="BQ28:CG28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:Q29"/>
+    <mergeCell ref="R29:AH29"/>
+    <mergeCell ref="AI29:AY29"/>
+    <mergeCell ref="AZ29:BP29"/>
+    <mergeCell ref="BQ29:CG29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:Q30"/>
+    <mergeCell ref="R30:AH30"/>
+    <mergeCell ref="AI30:AY30"/>
+    <mergeCell ref="AZ30:BP30"/>
+    <mergeCell ref="BQ30:CG30"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:Q33"/>
+    <mergeCell ref="R33:AH33"/>
+    <mergeCell ref="AI33:AY33"/>
+    <mergeCell ref="AZ33:BP33"/>
+    <mergeCell ref="BQ33:CG33"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:Q31"/>
+    <mergeCell ref="R31:AH31"/>
+    <mergeCell ref="AI31:AY31"/>
+    <mergeCell ref="AZ31:BP31"/>
+    <mergeCell ref="BQ31:CG31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:Q32"/>
+    <mergeCell ref="R32:AH32"/>
+    <mergeCell ref="AI32:AY32"/>
+    <mergeCell ref="AZ32:BP32"/>
+    <mergeCell ref="BQ32:CG32"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -8783,7 +9035,7 @@
   <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -8798,27 +9050,27 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -8826,13 +9078,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -8846,13 +9098,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -8866,13 +9118,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -8885,14 +9137,14 @@
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>54</v>
+      <c r="B7" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
@@ -8906,13 +9158,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -8926,13 +9178,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -8945,14 +9197,14 @@
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>42</v>
+      <c r="B10" s="18" t="s">
+        <v>83</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -8966,13 +9218,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
